--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4186451.875858209</v>
+        <v>4184571.69608788</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7383521.371511235</v>
+        <v>7383521.371511233</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57.28111013508705</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>177.9364581348098</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>324.8533966564055</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>30.99636303581986</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586873</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185837</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.40955656862305</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>207.0920728594999</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.38052139181475</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578919</v>
+        <v>70.85949911216079</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
@@ -2062,7 +2062,7 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>214.6690040633258</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.007706366894265</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S22" t="n">
         <v>186.8801586578919</v>
@@ -2293,19 +2293,19 @@
         <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>138.0703127320031</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.0703127320035</v>
+        <v>1.750205128281711</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,7 +2539,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>207.5440020263834</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.41761368552061</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>241.0969919981166</v>
@@ -2776,10 +2776,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633257</v>
+        <v>116.2407940247463</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E31" t="n">
-        <v>70.41761368552032</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.05682971998368</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3910,7 +3910,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>940.7524019189439</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,40 +4492,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.521057189058</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>935.2553585823075</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>549.4671059840632</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1344.046505337896</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4790,25 +4790,25 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2665.839633406284</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2665.839633406284</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2334.776746062713</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.008090792599</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785277</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661919</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858884</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,16 +5057,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5075,7 +5075,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>400.2445180358627</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426792</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557903</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811262</v>
+        <v>820.5263570570743</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>531.1091870201137</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>303.1196361220964</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220964</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5595,19 +5595,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841911</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937154</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172989</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969359</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5695,28 +5695,28 @@
         <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1512.236490277925</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1323.468653249752</v>
+        <v>1414.860047047191</v>
       </c>
       <c r="T19" t="n">
-        <v>1323.468653249752</v>
+        <v>1202.22680489297</v>
       </c>
       <c r="U19" t="n">
-        <v>1045.492187519584</v>
+        <v>924.250339162803</v>
       </c>
       <c r="V19" t="n">
-        <v>801.9598723699714</v>
+        <v>680.7180240131903</v>
       </c>
       <c r="W19" t="n">
-        <v>523.694875389285</v>
+        <v>680.7180240131903</v>
       </c>
       <c r="X19" t="n">
-        <v>306.8574975475418</v>
+        <v>463.8806461714471</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841911</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>393.0291468394963</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>391.0011606103102</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>391.0011606103102</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
         <v>540.2879676172992</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5926,34 +5926,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P22" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q22" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U22" t="n">
-        <v>1045.492187519584</v>
+        <v>807.0577537630746</v>
       </c>
       <c r="V22" t="n">
-        <v>801.9598723699714</v>
+        <v>563.5254386134619</v>
       </c>
       <c r="W22" t="n">
-        <v>523.694875389285</v>
+        <v>563.5254386134619</v>
       </c>
       <c r="X22" t="n">
-        <v>306.8574975475418</v>
+        <v>563.5254386134619</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>563.5254386134619</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>393.9655676879803</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>236.1815578163475</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
         <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969363</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
@@ -6163,34 +6163,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q25" t="n">
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U25" t="n">
-        <v>1045.492187519584</v>
+        <v>1295.899577679501</v>
       </c>
       <c r="V25" t="n">
-        <v>801.9598723699713</v>
+        <v>1052.367262529888</v>
       </c>
       <c r="W25" t="n">
-        <v>523.694875389285</v>
+        <v>774.1022655492019</v>
       </c>
       <c r="X25" t="n">
-        <v>306.8574975475418</v>
+        <v>774.1022655492019</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>564.4618594619459</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,7 +6224,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729332</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729332</v>
+        <v>236.1815578163474</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3459941729332</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6391,7 +6391,7 @@
         <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6400,34 +6400,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449756</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953629</v>
+        <v>841.5019043436296</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146764</v>
+        <v>563.2369073629432</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729332</v>
+        <v>445.8219639036034</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729332</v>
+        <v>236.1815578163474</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,22 +6543,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729326</v>
+        <v>453.8079629081066</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729326</v>
+        <v>453.8079629081066</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729326</v>
+        <v>314.8434965520449</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259259</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259259</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259259</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0825760259259</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,10 +6622,10 @@
         <v>120.5300287366499</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937156</v>
       </c>
       <c r="L31" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M31" t="n">
         <v>822.7849551969362</v>
@@ -6652,19 +6652,19 @@
         <v>1184.957149875143</v>
       </c>
       <c r="U31" t="n">
-        <v>906.980684144975</v>
+        <v>906.9806841449754</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953623</v>
+        <v>663.4483689953626</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146759</v>
+        <v>663.4483689953626</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729326</v>
+        <v>663.4483689953626</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729326</v>
+        <v>453.8079629081066</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,43 +6683,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,10 +7093,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108322</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504503</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,16 +7333,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,13 +7603,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010317</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>113.6026921294539</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>199.6230805871081</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>182.0340742867944</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.13752431970596</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>297.3877236703346</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>50.62661940943605</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>223.6742649934479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949857</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,19 +11145,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>158.872441903933</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.4224236133143</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43092547709114</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D19" t="n">
         <v>137.574821692501</v>
@@ -23902,13 +23902,13 @@
         <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.3785941385606</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>25.54317968626657</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>116.0206595457311</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>154.1984634060222</v>
       </c>
       <c r="D22" t="n">
         <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856057</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>137.1263883408629</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>137.1263883408625</v>
+        <v>273.4464959445842</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D28" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>67.4555633563041</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856057</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>98.42821003857945</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>64.97569763533745</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>134.3803966972199</v>
@@ -24853,10 +24853,10 @@
         <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I31" t="n">
-        <v>99.3785941385606</v>
+        <v>19.32176441857692</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620352.9185243121</v>
+        <v>620352.918524312</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625248.7725826562</v>
+        <v>625248.7725826561</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625248.7725826562</v>
+        <v>625248.772582656</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625248.7725826562</v>
+        <v>625248.7725826561</v>
       </c>
     </row>
     <row r="11">
@@ -26314,37 +26314,37 @@
         <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885323</v>
       </c>
       <c r="G2" t="n">
         <v>768665.9667554813</v>
       </c>
       <c r="H2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="I2" t="n">
-        <v>768665.9667554813</v>
+        <v>768665.9667554816</v>
       </c>
       <c r="J2" t="n">
-        <v>768665.9667554812</v>
+        <v>768665.9667554814</v>
       </c>
       <c r="K2" t="n">
         <v>768665.9667554813</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176769</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176772</v>
       </c>
       <c r="N2" t="n">
         <v>800515.7256176766</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569121</v>
+        <v>8832.521060568801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>54505.51210371252</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26427,31 +26427,31 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143903</v>
       </c>
       <c r="G4" t="n">
+        <v>18678.59412427841</v>
+      </c>
+      <c r="H4" t="n">
         <v>18678.5941242784</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18678.59412427842</v>
       </c>
       <c r="I4" t="n">
         <v>18678.5941242784</v>
       </c>
       <c r="J4" t="n">
-        <v>18678.59412427842</v>
+        <v>18678.5941242784</v>
       </c>
       <c r="K4" t="n">
         <v>18678.5941242784</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275954</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275958</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
         <v>92915.50246501787</v>
@@ -26491,16 +26491,16 @@
         <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29086.18991150035</v>
+        <v>-29086.18991150026</v>
       </c>
       <c r="C6" t="n">
-        <v>560881.6893030443</v>
+        <v>560881.6893030441</v>
       </c>
       <c r="D6" t="n">
-        <v>560881.6893030445</v>
+        <v>560881.689303044</v>
       </c>
       <c r="E6" t="n">
-        <v>130313.6344414809</v>
+        <v>130216.1753155082</v>
       </c>
       <c r="F6" t="n">
-        <v>655473.6709183769</v>
+        <v>655376.2117924043</v>
       </c>
       <c r="G6" t="n">
-        <v>648239.349105616</v>
+        <v>648157.6830572517</v>
       </c>
       <c r="H6" t="n">
-        <v>657071.8701661851</v>
+        <v>656990.2041178206</v>
       </c>
       <c r="I6" t="n">
-        <v>657071.8701661851</v>
+        <v>656990.2041178207</v>
       </c>
       <c r="J6" t="n">
-        <v>480648.6509735921</v>
+        <v>480566.9849252277</v>
       </c>
       <c r="K6" t="n">
-        <v>657071.8701661851</v>
+        <v>656990.2041178205</v>
       </c>
       <c r="L6" t="n">
-        <v>610830.6508311793</v>
+        <v>610830.650831179</v>
       </c>
       <c r="M6" t="n">
-        <v>530535.1477010546</v>
+        <v>530535.1477010549</v>
       </c>
       <c r="N6" t="n">
         <v>665336.1629348916</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,10 +26759,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,13 +26793,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>324.6492599371747</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>216.4888088016612</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>204.7973835286708</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>82.02264908530594</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>19.6607792729252</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724685</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>185.4519573218379</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19.4295499393364</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="20">
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>264.1781307173932</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375746</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>515.2286476848074</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K19" t="n">
         <v>162.7430798556219</v>
@@ -36054,13 +36054,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P19" t="n">
         <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
         <v>261.2548382056399</v>
@@ -36294,10 +36294,10 @@
         <v>247.2780028463143</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>343.3952292757303</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K25" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L25" t="n">
         <v>261.2548382056399</v>
@@ -36531,10 +36531,10 @@
         <v>247.2780028463143</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>504.4811386018593</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K28" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L28" t="n">
         <v>261.2548382056399</v>
@@ -36768,10 +36768,10 @@
         <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>383.821192807449</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127691</v>
       </c>
       <c r="K31" t="n">
         <v>162.7430798556219</v>
@@ -37002,13 +37002,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
         <v>189.4242519375121</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>374.2497035813871</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37166,7 +37166,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045727</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>441.2361441450411</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>339.5776813541859</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
